--- a/notes.xlsx
+++ b/notes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\alarm project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\alarm_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>R7</t>
   </si>
   <si>
-    <t>counter</t>
-  </si>
-  <si>
     <t xml:space="preserve">alarm state : 00 = alarm off, 01 = prealarm, 02 = alerte, 03 =  </t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>screaming</t>
+  </si>
+  <si>
+    <t>counter of 15sec for int1</t>
   </si>
 </sst>
 </file>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -416,12 +416,12 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -445,7 +445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -453,7 +453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -461,75 +461,75 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
